--- a/Wissenschaftliches Arbeiten und Forschungsmethoden_Termine.xlsx
+++ b/Wissenschaftliches Arbeiten und Forschungsmethoden_Termine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Empirisch-wissenschaftliches Arbeiten/VO_Wissenschaftliches Arbeiten und Forschungsmethoden/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Empirisch-wissenschaftliches Arbeiten/VO_Wissenschaftliches Arbeiten und Forschungsmethoden/WAF_Folien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0D6A0B-1266-AD4B-8D81-A7C397C093BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A56473-7530-2A4B-8A38-F693F3B2626F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44600" yWindow="500" windowWidth="27040" windowHeight="15060" xr2:uid="{2F7FBD6D-06A1-CD4E-B3C2-12F6DAD39F9F}"/>
+    <workbookView xWindow="40160" yWindow="500" windowWidth="27040" windowHeight="15060" xr2:uid="{2F7FBD6D-06A1-CD4E-B3C2-12F6DAD39F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
